--- a/4_SV_security/学習.xlsx
+++ b/4_SV_security/学習.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinaga\Documents\Python Scripts\security_specialist\4_SV_security\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E41427-DCEC-4475-8568-CAF332516216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="555" yWindow="0" windowWidth="13395" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,14 +24,131 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+  <si>
+    <t>EPP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デバイス。Inetから見たEPを保護する機能</t>
+    <rPh sb="11" eb="12">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ホゴ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EDR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Endpoint Detection and Response</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PCやスマートフォンといったエンドポイント上の不審な挙動を速やかに検知・セキュリティ監視者へ通知し、脅威の侵入にいち早く対処するためのセキュリティソリューションです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IAP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイデンティティ認識型プロキシ(Identity-Aware Proxy：IAP)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>利用者とアプリケーションの間の通信を仲介し、認証基盤、認証情報および認可情報を連携する中継システム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>利用者がアプリケーションにアクセスする度に認証基盤と連携し、認証・認可を行ったうえでアプリケーションへのアクセスを許可</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セッションハイジャック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Webサイトを利用する際に発行されるセッションIDを不正に入手し、正規のユーザーになりすまして不正アクセスをする、サイバー攻撃</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サーバーへの不正侵入による情報漏洩や改ざん、クレジットカードの不正利用など、さまざまな被害が予想</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Webサイトで発行されるセッションIDを悪用した攻撃のため、「サイト管理者・運営者側」の対策が非常に大切</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セッションハイジャックとは、推測や窃取などで不正に入手した「セッションID」を使って正規のユーザーになりすまし、ユーザーとサーバー間のやりとりを乗っ取るサイバー攻撃</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セッションハイジャックによる被害としては「機密情報・個人情報の窃取」「サーバーへの不正侵入」「登録情報の漏洩・改ざん」「クレジットカードの不正利用」「不正送金」などがある</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セッションハイジャックを防ぐためには、そもそもセッションIDをURLパラメータに含めない、第三者から推測されにくいセッションIDにする、ログイン成功後に新しいセッションIDを付与する、HTTPS通信で利用するCookieにsecure属性を加える、といった対策が有効</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クッキーモンスターバグ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クッキーのデフォルト動作では、クッキーをセットしたホスト(FQDN)にのみクッキーが送信されますが、domain属性を指定することにより、クッキー送信するドメインを広げることができます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>domain=example.jpを指定すると、example.jpのサブドメインのホスト、たとえば、www.example.jpやsub1.example.jpにもfoo=barというクッキーが送信されます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Set-Cookie: foo=bar; domain=example.jp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>domain=jpと指定すると、JPドメイン名を持つサイト全てにそのクッキーが送信されるかというと、そうではありません。セキュリティ上の理由から、クッキー設定時のdomain指定が制限されているからです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブラウザによっては、この制限が期待した通りにならない場合があります</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Internet Explorerが正しくdomainの制限を掛けてないことが知られています。この現象をクッキーモンスタバグ(Cookie Monster Bug)と呼びます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DHCPスプーフィング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -53,7 +176,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +453,153 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="B26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>7</v>
+      </c>
+      <c r="B29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/4_SV_security/学習.xlsx
+++ b/4_SV_security/学習.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinaga\Documents\Python Scripts\security_specialist\4_SV_security\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E41427-DCEC-4475-8568-CAF332516216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01BEAD5-09A5-4A8C-9903-87443712E4BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="555" yWindow="0" windowWidth="13395" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-255" yWindow="315" windowWidth="14055" windowHeight="14745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>EPP</t>
     <phoneticPr fontId="1"/>
@@ -128,7 +128,113 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>DHCPスプーフィング</t>
+    <t>X.509</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ITU-Tが定めた、ネットワーク上での分散ディレクトリサービスに関する規格。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ネットワーク上の情報資源を単一のツリー構造のデータベースに格納し、一意な名前によって識別・参照する方法を定めている。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ディレクトリサービスを構成するためのデータモデルや通信プロトコル、認証方式などを定義しており、LDAP（Lightweight Directory Access Protocol）の元になったDAP（Directory Access Protocol）や、DSP（Directory System Protocol）、DISP（Directory Information Shadowing Protocol）など様々なプロトコル群が定義されている。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いわゆるOSI（Open Systems Interconnect）規格群の一貫としてITU-Tによって策定され、最初の規格は1988年に勧告された。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IDS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IDS/IPSの不正アクセスの検知法にはアノマリとシグニチャ</t>
+    <rPh sb="8" eb="10">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ケンチ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シグニチャ型</t>
+    <rPh sb="5" eb="6">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不正検出型で、DBに不正パターンを登録し、一致する通信を不正アクセスとして検知する</t>
+    <rPh sb="0" eb="4">
+      <t>フセイケンシュツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>イッチ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ケンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メリット：過去に経験した攻撃を正確にブロック出来る。誤検知も少ない</t>
+    <rPh sb="5" eb="7">
+      <t>カコ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>セイカク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>ゴケンチ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>スク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デメリット；脅威の多様化があるため、限界がある</t>
+    <rPh sb="6" eb="8">
+      <t>キョウイ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>タヨウカ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ゲンカイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -454,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -598,6 +704,59 @@
         <v>23</v>
       </c>
     </row>
+    <row r="30" spans="1:2">
+      <c r="B30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="B33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>8</v>
+      </c>
+      <c r="B35" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="B36" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="B37" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="B38" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="B39" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="B40" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/4_SV_security/学習.xlsx
+++ b/4_SV_security/学習.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinaga\Documents\Python Scripts\security_specialist\4_SV_security\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01BEAD5-09A5-4A8C-9903-87443712E4BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{552FD194-EAC6-42CA-B193-41307DBDB66D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-255" yWindow="315" windowWidth="14055" windowHeight="14745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="285" yWindow="0" windowWidth="14970" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>EPP</t>
     <phoneticPr fontId="1"/>
@@ -234,6 +234,57 @@
     </rPh>
     <rPh sb="18" eb="20">
       <t>ゲンカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ローカルブレークアウト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>企業におけるインターネットアクセスの一部を、各拠点に設置したルータなどの機器から直接行うこと</t>
+    <rPh sb="0" eb="2">
+      <t>キギョウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>イチブ</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>カクキョテン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>セッチ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>キキ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データセンターを経由せずブレークアウトすることで、クラウドサービスの快適な理由や、社内ネットワークの混雑緩和が見込める</t>
+    <rPh sb="8" eb="10">
+      <t>ケイユ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>カイテキ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>リユウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>シャナイ</t>
+    </rPh>
+    <rPh sb="50" eb="54">
+      <t>コンザツカンワ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ミコ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -560,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -757,6 +808,24 @@
         <v>33</v>
       </c>
     </row>
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <v>9</v>
+      </c>
+      <c r="B42" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="B43" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="B44" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/4_SV_security/学習.xlsx
+++ b/4_SV_security/学習.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinaga\Documents\Python Scripts\security_specialist\4_SV_security\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{552FD194-EAC6-42CA-B193-41307DBDB66D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85F920D-DB82-47DF-A521-2298777DCB2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="0" windowWidth="14970" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="90" yWindow="0" windowWidth="14100" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>EPP</t>
     <phoneticPr fontId="1"/>
@@ -286,6 +286,56 @@
     <rPh sb="55" eb="57">
       <t>ミコ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンテント・セキュリティ・ポリシー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クロスサイトスクリプティング (Cross-site_scripting) やデータインジェクション攻撃などのような、特定の種類の攻撃を検知し、影響を軽減するために追加できるセキュリティレイヤー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これらの攻撃はデータの窃取からサイトの改ざん、マルウェアの拡散に至るまで、様々な目的に用いられます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>略してCSPと呼ばれる</t>
+    <rPh sb="0" eb="1">
+      <t>リャク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CSP を有効にするには、ウェブサーバーから Content-Security-Policy HTTP ヘッダーを返すように設定する必要があります</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リソースを制限することで、攻撃を未然に防ぐ</t>
+    <rPh sb="5" eb="7">
+      <t>セイゲン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ミゼン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>フセ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CSPは、ウェブページ上で実行できるスクリプトのソースを指定できます。例えば、script-src 'self' と設定することで、自サイト内から提供されたスクリプトのみが実行されるようにできます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>script-src ポリシーに unsafe-inline を指定しない場合、インラインスクリプト（&lt;script&gt; タグ内に直接書かれたスクリプト）は実行されなくなります。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -611,10 +661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -770,12 +820,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:3">
       <c r="B33" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:3">
       <c r="A35">
         <v>8</v>
       </c>
@@ -783,32 +833,32 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:3">
       <c r="B36" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:3">
       <c r="B37" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:3">
       <c r="B38" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:3">
       <c r="B39" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:3">
       <c r="B40" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:3">
       <c r="A42">
         <v>9</v>
       </c>
@@ -816,14 +866,57 @@
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:3">
       <c r="B43" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:3">
       <c r="B44" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>10</v>
+      </c>
+      <c r="B46" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="B47" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="C48" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
